--- a/06_OBSERVACIONES/Pruebas Unitarias CONFIA PRO-1553 v1.xlsx
+++ b/06_OBSERVACIONES/Pruebas Unitarias CONFIA PRO-1553 v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\PROYECTOS\PRO-1553 Onboarding -Download datos OCR  APP R2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Datum-Redsoft\Desktop\lguzman\MIS_DESARROLLOS\000048-ONBOARDING\3. GIT\ONBOARDING_R2\06_OBSERVACIONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559B617F-3344-4A49-A308-793E2EB676E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D884C3DF-0685-4482-BB1E-971F7932A82D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos" sheetId="2" r:id="rId1"/>
@@ -29,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -416,6 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,19 +782,19 @@
       <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="17">
         <v>0</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>0</v>
       </c>
       <c r="F5" s="17">
         <v>0</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="26">
         <v>0</v>
       </c>
       <c r="H5" s="17">
@@ -808,17 +808,17 @@
       <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="17">
         <v>0</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="17">
         <v>0</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="17">
         <v>0</v>
       </c>
@@ -831,17 +831,17 @@
       <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="17">
         <v>0</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="17">
         <v>0</v>
       </c>
@@ -854,17 +854,17 @@
       <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="17">
         <v>0</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="17">
         <v>0</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="27"/>
       <c r="H8" s="17">
         <v>0</v>
       </c>
@@ -877,17 +877,17 @@
       <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="17">
         <v>0</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="17">
         <v>0</v>
       </c>
@@ -900,17 +900,17 @@
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="26"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="17">
         <v>0</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="17">
         <v>0</v>
       </c>
@@ -923,17 +923,17 @@
       <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="17">
         <v>0</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="17">
         <v>0</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="17">
         <v>0</v>
       </c>
@@ -946,17 +946,17 @@
       <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="17">
         <v>0</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="17">
         <v>0</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="17">
         <v>0</v>
       </c>
@@ -971,17 +971,17 @@
       <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="17">
         <v>0</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="17">
         <v>0</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="17">
         <v>0</v>
       </c>
@@ -994,17 +994,17 @@
       <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="17">
         <v>0</v>
       </c>
@@ -1019,17 +1019,17 @@
       <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="25" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="17">
         <v>0</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="17">
         <v>0</v>
       </c>
@@ -1042,17 +1042,17 @@
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="25" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="17">
         <v>0</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="17">
         <v>0</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="17">
         <v>0</v>
       </c>
@@ -1065,17 +1065,17 @@
       <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="17">
         <v>0</v>
       </c>
@@ -1088,17 +1088,17 @@
       <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="17">
         <v>0</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="17">
         <v>0</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="17">
         <v>0</v>
       </c>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
